--- a/winrate_result/obv.xlsx
+++ b/winrate_result/obv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ESG\winrate_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0B2A8B-6E5C-4704-9DE5-A9DCBBE1D7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11208966-9B01-4B41-900D-D693FD0EF3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>cop</t>
   </si>
@@ -103,15 +103,9 @@
     <t>aph</t>
   </si>
   <si>
-    <t>nee</t>
-  </si>
-  <si>
     <t>are</t>
   </si>
   <si>
-    <t>vrsk</t>
-  </si>
-  <si>
     <t>trmb</t>
   </si>
   <si>
@@ -268,9 +262,6 @@
     <t>myps</t>
   </si>
   <si>
-    <t>afbi</t>
-  </si>
-  <si>
     <t>abos</t>
   </si>
   <si>
@@ -301,9 +292,6 @@
     <t>ffiv</t>
   </si>
   <si>
-    <t>abvc</t>
-  </si>
-  <si>
     <t>cvx</t>
   </si>
   <si>
@@ -340,9 +328,6 @@
     <t>iff</t>
   </si>
   <si>
-    <t>px</t>
-  </si>
-  <si>
     <t>saic</t>
   </si>
   <si>
@@ -401,9 +386,6 @@
   </si>
   <si>
     <t>beam</t>
-  </si>
-  <si>
-    <t>brk-b</t>
   </si>
   <si>
     <t>blk</t>
@@ -832,15 +814,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EV7"/>
+  <dimension ref="A1:EO7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EO1" workbookViewId="0">
-      <selection activeCell="EV4" sqref="EV4"/>
+    <sheetView tabSelected="1" topLeftCell="DV1" workbookViewId="0">
+      <selection activeCell="EP8" sqref="EP8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:152" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:145" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1273,26 +1255,8 @@
       <c r="EO1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="EP1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="ER1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="ET1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>149</v>
-      </c>
     </row>
-    <row r="2" spans="1:152" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:145" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>5</v>
       </c>
@@ -1384,226 +1348,226 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ2">
         <v>0</v>
       </c>
       <c r="AK2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="AN2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>50</v>
+      </c>
+      <c r="AQ2">
+        <v>100</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>50</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>50</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>50</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>50</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>50</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
         <v>66.666666666666657</v>
       </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>50</v>
-      </c>
-      <c r="AS2">
-        <v>100</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>33.333333333333329</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>50</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>50</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BL2">
-        <v>50</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
-      </c>
-      <c r="BN2">
-        <v>0</v>
-      </c>
-      <c r="BO2">
-        <v>50</v>
-      </c>
-      <c r="BP2">
-        <v>0</v>
-      </c>
-      <c r="BQ2">
-        <v>0</v>
-      </c>
-      <c r="BR2">
-        <v>0</v>
-      </c>
-      <c r="BS2">
-        <v>0</v>
-      </c>
-      <c r="BT2">
-        <v>0</v>
-      </c>
-      <c r="BU2">
-        <v>50</v>
-      </c>
-      <c r="BV2">
-        <v>0</v>
-      </c>
-      <c r="BW2">
-        <v>0</v>
-      </c>
-      <c r="BX2">
-        <v>0</v>
-      </c>
-      <c r="BY2">
-        <v>0</v>
-      </c>
       <c r="BZ2">
         <v>0</v>
       </c>
       <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>100</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>75</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>100</v>
+      </c>
+      <c r="CR2">
+        <v>100</v>
+      </c>
+      <c r="CS2">
         <v>66.666666666666657</v>
       </c>
-      <c r="CB2">
-        <v>0</v>
-      </c>
-      <c r="CC2">
-        <v>0</v>
-      </c>
-      <c r="CD2">
-        <v>0</v>
-      </c>
-      <c r="CE2">
-        <v>0</v>
-      </c>
-      <c r="CF2">
-        <v>0</v>
-      </c>
-      <c r="CG2">
-        <v>0</v>
-      </c>
-      <c r="CH2">
-        <v>100</v>
-      </c>
-      <c r="CI2">
-        <v>0</v>
-      </c>
-      <c r="CJ2">
-        <v>0</v>
-      </c>
-      <c r="CK2">
-        <v>0</v>
-      </c>
-      <c r="CL2">
-        <v>0</v>
-      </c>
-      <c r="CM2">
-        <v>0</v>
-      </c>
-      <c r="CN2">
-        <v>0</v>
-      </c>
-      <c r="CO2">
-        <v>0</v>
-      </c>
-      <c r="CP2">
-        <v>0</v>
-      </c>
-      <c r="CQ2">
-        <v>33.333333333333329</v>
-      </c>
-      <c r="CR2">
-        <v>0</v>
-      </c>
-      <c r="CS2">
-        <v>75</v>
-      </c>
       <c r="CT2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="CU2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>66.666666666666657</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CZ2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="DA2">
         <v>0</v>
@@ -1612,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="DC2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DD2">
         <v>0</v>
       </c>
       <c r="DE2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="DF2">
         <v>0</v>
@@ -1639,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="DL2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DM2">
         <v>0</v>
@@ -1648,13 +1612,13 @@
         <v>0</v>
       </c>
       <c r="DO2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DP2">
         <v>0</v>
       </c>
       <c r="DQ2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DR2">
         <v>0</v>
@@ -1663,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="DT2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DU2">
         <v>0</v>
@@ -1687,13 +1651,13 @@
         <v>0</v>
       </c>
       <c r="EB2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EC2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="ED2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="EE2">
         <v>0</v>
@@ -1705,53 +1669,31 @@
         <v>0</v>
       </c>
       <c r="EH2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="EJ2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="EK2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EL2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EM2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EN2">
         <v>0</v>
       </c>
       <c r="EO2">
-        <v>50</v>
-      </c>
-      <c r="EP2">
-        <v>100</v>
-      </c>
-      <c r="EQ2">
-        <v>100</v>
-      </c>
-      <c r="ER2">
-        <v>100</v>
-      </c>
-      <c r="ES2">
-        <v>100</v>
-      </c>
-      <c r="ET2">
-        <v>0</v>
-      </c>
-      <c r="EU2">
-        <v>0</v>
-      </c>
-      <c r="EV2">
-        <f>AVERAGE(B2:EU2)</f>
-        <v>22.388888888888886</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:152" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:145" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -1837,232 +1779,232 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD3">
         <v>100</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF3">
         <v>100</v>
       </c>
       <c r="AG3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ3">
         <v>0</v>
       </c>
       <c r="AK3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="AN3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>50</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>100</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>100</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>50</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>100</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>100</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>100</v>
+      </c>
+      <c r="BM3">
+        <v>100</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>100</v>
+      </c>
+      <c r="BP3">
+        <v>100</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>100</v>
+      </c>
+      <c r="BS3">
+        <v>50</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>100</v>
+      </c>
+      <c r="BY3">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="BZ3">
+        <v>100</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
         <v>33.333333333333329</v>
       </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>50</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>100</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>50</v>
+      </c>
+      <c r="CF3">
+        <v>100</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>0</v>
+      </c>
+      <c r="CO3">
+        <v>50</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <v>100</v>
+      </c>
+      <c r="CR3">
+        <v>100</v>
+      </c>
+      <c r="CS3">
         <v>66.666666666666657</v>
       </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>100</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>50</v>
-      </c>
-      <c r="BC3">
-        <v>0</v>
-      </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>100</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
-      <c r="BH3">
-        <v>0</v>
-      </c>
-      <c r="BI3">
-        <v>0</v>
-      </c>
-      <c r="BJ3">
-        <v>0</v>
-      </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>100</v>
-      </c>
-      <c r="BM3">
-        <v>0</v>
-      </c>
-      <c r="BN3">
-        <v>100</v>
-      </c>
-      <c r="BO3">
-        <v>100</v>
-      </c>
-      <c r="BP3">
-        <v>0</v>
-      </c>
-      <c r="BQ3">
-        <v>100</v>
-      </c>
-      <c r="BR3">
-        <v>100</v>
-      </c>
-      <c r="BS3">
-        <v>0</v>
-      </c>
-      <c r="BT3">
-        <v>100</v>
-      </c>
-      <c r="BU3">
-        <v>50</v>
-      </c>
-      <c r="BV3">
-        <v>0</v>
-      </c>
-      <c r="BW3">
-        <v>0</v>
-      </c>
-      <c r="BX3">
-        <v>0</v>
-      </c>
-      <c r="BY3">
-        <v>0</v>
-      </c>
-      <c r="BZ3">
-        <v>100</v>
-      </c>
-      <c r="CA3">
-        <v>66.666666666666657</v>
-      </c>
-      <c r="CB3">
-        <v>100</v>
-      </c>
-      <c r="CC3">
-        <v>0</v>
-      </c>
-      <c r="CD3">
-        <v>33.333333333333329</v>
-      </c>
-      <c r="CE3">
-        <v>0</v>
-      </c>
-      <c r="CF3">
-        <v>0</v>
-      </c>
-      <c r="CG3">
-        <v>0</v>
-      </c>
-      <c r="CH3">
-        <v>50</v>
-      </c>
-      <c r="CI3">
-        <v>100</v>
-      </c>
-      <c r="CJ3">
-        <v>0</v>
-      </c>
-      <c r="CK3">
-        <v>0</v>
-      </c>
-      <c r="CL3">
-        <v>0</v>
-      </c>
-      <c r="CM3">
-        <v>0</v>
-      </c>
-      <c r="CN3">
-        <v>0</v>
-      </c>
-      <c r="CO3">
-        <v>0</v>
-      </c>
-      <c r="CP3">
-        <v>0</v>
-      </c>
-      <c r="CQ3">
-        <v>33.333333333333329</v>
-      </c>
-      <c r="CR3">
-        <v>0</v>
-      </c>
-      <c r="CS3">
-        <v>50</v>
-      </c>
       <c r="CT3">
         <v>0</v>
       </c>
       <c r="CU3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>66.666666666666657</v>
+        <v>0</v>
       </c>
       <c r="CX3">
         <v>0</v>
       </c>
       <c r="CY3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CZ3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="DA3">
         <v>0</v>
@@ -2071,19 +2013,19 @@
         <v>0</v>
       </c>
       <c r="DC3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DD3">
         <v>0</v>
       </c>
       <c r="DE3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="DF3">
         <v>0</v>
       </c>
       <c r="DG3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DH3">
         <v>0</v>
@@ -2092,19 +2034,19 @@
         <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DK3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DL3">
         <v>100</v>
       </c>
       <c r="DM3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DN3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DO3">
         <v>100</v>
@@ -2113,16 +2055,16 @@
         <v>100</v>
       </c>
       <c r="DQ3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DR3">
         <v>100</v>
       </c>
       <c r="DS3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DU3">
         <v>100</v>
@@ -2131,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="DW3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DX3">
         <v>0</v>
@@ -2143,16 +2085,16 @@
         <v>0</v>
       </c>
       <c r="EA3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EC3">
         <v>0</v>
       </c>
       <c r="ED3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="EE3">
         <v>0</v>
@@ -2164,13 +2106,13 @@
         <v>0</v>
       </c>
       <c r="EH3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EJ3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="EK3">
         <v>0</v>
@@ -2185,32 +2127,10 @@
         <v>0</v>
       </c>
       <c r="EO3">
-        <v>100</v>
-      </c>
-      <c r="EP3">
-        <v>100</v>
-      </c>
-      <c r="EQ3">
-        <v>0</v>
-      </c>
-      <c r="ER3">
-        <v>0</v>
-      </c>
-      <c r="ES3">
-        <v>0</v>
-      </c>
-      <c r="ET3">
-        <v>0</v>
-      </c>
-      <c r="EU3">
-        <v>0</v>
-      </c>
-      <c r="EV3">
-        <f t="shared" ref="EV3:EV7" si="0">AVERAGE(B3:EU3)</f>
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:152" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:145" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>15</v>
       </c>
@@ -2296,232 +2216,232 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD4">
         <v>100</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF4">
         <v>100</v>
       </c>
       <c r="AG4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ4">
         <v>0</v>
       </c>
       <c r="AK4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AO4">
+        <v>100</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>100</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>100</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>100</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>100</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>100</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>100</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>100</v>
+      </c>
+      <c r="BM4">
+        <v>100</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>100</v>
+      </c>
+      <c r="BP4">
+        <v>100</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>100</v>
+      </c>
+      <c r="BS4">
+        <v>50</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>100</v>
+      </c>
+      <c r="BY4">
+        <v>100</v>
+      </c>
+      <c r="BZ4">
+        <v>100</v>
+      </c>
+      <c r="CA4">
+        <v>100</v>
+      </c>
+      <c r="CB4">
         <v>33.333333333333329</v>
       </c>
-      <c r="AP4">
-        <v>100</v>
-      </c>
-      <c r="AQ4">
-        <v>100</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>100</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>100</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>50</v>
+      </c>
+      <c r="CF4">
+        <v>100</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>100</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>25</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>100</v>
+      </c>
+      <c r="CR4">
+        <v>100</v>
+      </c>
+      <c r="CS4">
         <v>66.666666666666657</v>
       </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>100</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>100</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>100</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4">
-        <v>0</v>
-      </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>100</v>
-      </c>
-      <c r="BM4">
-        <v>0</v>
-      </c>
-      <c r="BN4">
-        <v>100</v>
-      </c>
-      <c r="BO4">
-        <v>100</v>
-      </c>
-      <c r="BP4">
-        <v>0</v>
-      </c>
-      <c r="BQ4">
-        <v>100</v>
-      </c>
-      <c r="BR4">
-        <v>100</v>
-      </c>
-      <c r="BS4">
-        <v>0</v>
-      </c>
-      <c r="BT4">
-        <v>100</v>
-      </c>
-      <c r="BU4">
-        <v>50</v>
-      </c>
-      <c r="BV4">
-        <v>0</v>
-      </c>
-      <c r="BW4">
-        <v>0</v>
-      </c>
-      <c r="BX4">
-        <v>0</v>
-      </c>
-      <c r="BY4">
-        <v>0</v>
-      </c>
-      <c r="BZ4">
-        <v>100</v>
-      </c>
-      <c r="CA4">
-        <v>100</v>
-      </c>
-      <c r="CB4">
-        <v>100</v>
-      </c>
-      <c r="CC4">
-        <v>100</v>
-      </c>
-      <c r="CD4">
-        <v>33.333333333333329</v>
-      </c>
-      <c r="CE4">
-        <v>0</v>
-      </c>
-      <c r="CF4">
-        <v>100</v>
-      </c>
-      <c r="CG4">
-        <v>0</v>
-      </c>
-      <c r="CH4">
-        <v>50</v>
-      </c>
-      <c r="CI4">
-        <v>100</v>
-      </c>
-      <c r="CJ4">
-        <v>0</v>
-      </c>
-      <c r="CK4">
-        <v>0</v>
-      </c>
-      <c r="CL4">
-        <v>0</v>
-      </c>
-      <c r="CM4">
-        <v>0</v>
-      </c>
-      <c r="CN4">
-        <v>0</v>
-      </c>
-      <c r="CO4">
-        <v>0</v>
-      </c>
-      <c r="CP4">
-        <v>100</v>
-      </c>
-      <c r="CQ4">
-        <v>33.333333333333329</v>
-      </c>
-      <c r="CR4">
-        <v>0</v>
-      </c>
-      <c r="CS4">
-        <v>25</v>
-      </c>
       <c r="CT4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="CU4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>66.666666666666657</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CZ4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="DA4">
         <v>0</v>
@@ -2530,37 +2450,37 @@
         <v>0</v>
       </c>
       <c r="DC4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DD4">
         <v>0</v>
       </c>
       <c r="DE4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="DF4">
         <v>0</v>
       </c>
       <c r="DG4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DH4">
         <v>0</v>
       </c>
       <c r="DI4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DJ4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DK4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DL4">
         <v>100</v>
       </c>
       <c r="DM4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DN4">
         <v>100</v>
@@ -2572,16 +2492,16 @@
         <v>100</v>
       </c>
       <c r="DQ4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DR4">
         <v>100</v>
       </c>
       <c r="DS4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DU4">
         <v>100</v>
@@ -2590,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="DW4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DX4">
         <v>0</v>
@@ -2602,16 +2522,16 @@
         <v>0</v>
       </c>
       <c r="EA4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EC4">
         <v>0</v>
       </c>
       <c r="ED4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EE4">
         <v>0</v>
@@ -2623,19 +2543,19 @@
         <v>0</v>
       </c>
       <c r="EH4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EJ4">
         <v>100</v>
       </c>
       <c r="EK4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EL4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EM4">
         <v>0</v>
@@ -2646,30 +2566,8 @@
       <c r="EO4">
         <v>100</v>
       </c>
-      <c r="EP4">
-        <v>100</v>
-      </c>
-      <c r="EQ4">
-        <v>100</v>
-      </c>
-      <c r="ER4">
-        <v>100</v>
-      </c>
-      <c r="ES4">
-        <v>0</v>
-      </c>
-      <c r="ET4">
-        <v>0</v>
-      </c>
-      <c r="EU4">
-        <v>100</v>
-      </c>
-      <c r="EV4">
-        <f t="shared" si="0"/>
-        <v>41.055555555555557</v>
-      </c>
     </row>
-    <row r="5" spans="1:152" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:145" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>20</v>
       </c>
@@ -2758,49 +2656,49 @@
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF5">
         <v>100</v>
       </c>
       <c r="AG5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ5">
         <v>0</v>
       </c>
       <c r="AK5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="AN5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>33.333333333333329</v>
+        <v>100</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AQ5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AS5">
         <v>0</v>
@@ -2812,175 +2710,175 @@
         <v>0</v>
       </c>
       <c r="AV5">
-        <v>100</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="AW5">
         <v>0</v>
       </c>
       <c r="AX5">
+        <v>100</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>100</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>100</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>100</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>100</v>
+      </c>
+      <c r="BM5">
+        <v>50</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>100</v>
+      </c>
+      <c r="BP5">
+        <v>100</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>100</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>100</v>
+      </c>
+      <c r="BY5">
         <v>66.666666666666657</v>
       </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
-        <v>100</v>
-      </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5">
-        <v>100</v>
-      </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
-      <c r="BD5">
-        <v>0</v>
-      </c>
-      <c r="BE5">
-        <v>100</v>
-      </c>
-      <c r="BF5">
-        <v>0</v>
-      </c>
-      <c r="BG5">
-        <v>0</v>
-      </c>
-      <c r="BH5">
-        <v>0</v>
-      </c>
-      <c r="BI5">
-        <v>0</v>
-      </c>
-      <c r="BJ5">
-        <v>0</v>
-      </c>
-      <c r="BK5">
-        <v>0</v>
-      </c>
-      <c r="BL5">
-        <v>100</v>
-      </c>
-      <c r="BM5">
-        <v>0</v>
-      </c>
-      <c r="BN5">
-        <v>100</v>
-      </c>
-      <c r="BO5">
-        <v>50</v>
-      </c>
-      <c r="BP5">
-        <v>0</v>
-      </c>
-      <c r="BQ5">
-        <v>100</v>
-      </c>
-      <c r="BR5">
-        <v>100</v>
-      </c>
-      <c r="BS5">
-        <v>0</v>
-      </c>
-      <c r="BT5">
-        <v>100</v>
-      </c>
-      <c r="BU5">
-        <v>0</v>
-      </c>
-      <c r="BV5">
-        <v>0</v>
-      </c>
-      <c r="BW5">
-        <v>0</v>
-      </c>
-      <c r="BX5">
-        <v>0</v>
-      </c>
-      <c r="BY5">
-        <v>0</v>
-      </c>
       <c r="BZ5">
         <v>100</v>
       </c>
       <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>100</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>100</v>
+      </c>
+      <c r="CF5">
+        <v>100</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>25</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>100</v>
+      </c>
+      <c r="CR5">
+        <v>100</v>
+      </c>
+      <c r="CS5">
         <v>66.666666666666657</v>
       </c>
-      <c r="CB5">
-        <v>100</v>
-      </c>
-      <c r="CC5">
-        <v>0</v>
-      </c>
-      <c r="CD5">
-        <v>100</v>
-      </c>
-      <c r="CE5">
-        <v>0</v>
-      </c>
-      <c r="CF5">
-        <v>100</v>
-      </c>
-      <c r="CG5">
-        <v>0</v>
-      </c>
-      <c r="CH5">
-        <v>100</v>
-      </c>
-      <c r="CI5">
-        <v>100</v>
-      </c>
-      <c r="CJ5">
-        <v>0</v>
-      </c>
-      <c r="CK5">
-        <v>0</v>
-      </c>
-      <c r="CL5">
-        <v>0</v>
-      </c>
-      <c r="CM5">
-        <v>0</v>
-      </c>
-      <c r="CN5">
-        <v>0</v>
-      </c>
-      <c r="CO5">
-        <v>0</v>
-      </c>
-      <c r="CP5">
-        <v>0</v>
-      </c>
-      <c r="CQ5">
-        <v>0</v>
-      </c>
-      <c r="CR5">
-        <v>0</v>
-      </c>
-      <c r="CS5">
-        <v>25</v>
-      </c>
       <c r="CT5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CU5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>66.666666666666657</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CZ5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="DA5">
         <v>0</v>
@@ -2989,37 +2887,37 @@
         <v>0</v>
       </c>
       <c r="DC5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DD5">
         <v>0</v>
       </c>
       <c r="DE5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="DF5">
         <v>0</v>
       </c>
       <c r="DG5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DH5">
         <v>0</v>
       </c>
       <c r="DI5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DJ5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DK5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DL5">
         <v>100</v>
       </c>
       <c r="DM5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DN5">
         <v>100</v>
@@ -3031,16 +2929,16 @@
         <v>100</v>
       </c>
       <c r="DQ5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DR5">
         <v>100</v>
       </c>
       <c r="DS5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DU5">
         <v>100</v>
@@ -3049,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="DW5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DX5">
         <v>0</v>
@@ -3061,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="EA5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EC5">
         <v>0</v>
       </c>
       <c r="ED5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EE5">
         <v>0</v>
@@ -3082,10 +2980,10 @@
         <v>0</v>
       </c>
       <c r="EH5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EJ5">
         <v>100</v>
@@ -3094,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="EL5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EM5">
         <v>0</v>
@@ -3103,32 +3001,10 @@
         <v>0</v>
       </c>
       <c r="EO5">
-        <v>100</v>
-      </c>
-      <c r="EP5">
-        <v>100</v>
-      </c>
-      <c r="EQ5">
-        <v>0</v>
-      </c>
-      <c r="ER5">
-        <v>100</v>
-      </c>
-      <c r="ES5">
-        <v>0</v>
-      </c>
-      <c r="ET5">
-        <v>0</v>
-      </c>
-      <c r="EU5">
-        <v>0</v>
-      </c>
-      <c r="EV5">
-        <f t="shared" si="0"/>
-        <v>37.05555555555555</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:152" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:145" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>25</v>
       </c>
@@ -3217,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -3229,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -3244,28 +3120,28 @@
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="AN6">
         <v>0</v>
       </c>
       <c r="AO6">
-        <v>33.333333333333329</v>
+        <v>100</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AQ6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AS6">
         <v>0</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -3277,19 +3153,19 @@
         <v>0</v>
       </c>
       <c r="AX6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AY6">
         <v>0</v>
       </c>
       <c r="AZ6">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BA6">
         <v>0</v>
       </c>
       <c r="BB6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BC6">
         <v>0</v>
@@ -3313,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BK6">
         <v>0</v>
@@ -3322,25 +3198,25 @@
         <v>100</v>
       </c>
       <c r="BM6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BN6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BP6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BQ6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BR6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BT6">
         <v>0</v>
@@ -3352,94 +3228,94 @@
         <v>0</v>
       </c>
       <c r="BW6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BX6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BY6">
-        <v>100</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="BZ6">
         <v>100</v>
       </c>
       <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>100</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>100</v>
+      </c>
+      <c r="CF6">
+        <v>100</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>50</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>100</v>
+      </c>
+      <c r="CR6">
+        <v>100</v>
+      </c>
+      <c r="CS6">
         <v>66.666666666666657</v>
       </c>
-      <c r="CB6">
-        <v>100</v>
-      </c>
-      <c r="CC6">
-        <v>0</v>
-      </c>
-      <c r="CD6">
-        <v>100</v>
-      </c>
-      <c r="CE6">
-        <v>0</v>
-      </c>
-      <c r="CF6">
-        <v>100</v>
-      </c>
-      <c r="CG6">
-        <v>0</v>
-      </c>
-      <c r="CH6">
-        <v>100</v>
-      </c>
-      <c r="CI6">
-        <v>100</v>
-      </c>
-      <c r="CJ6">
-        <v>0</v>
-      </c>
-      <c r="CK6">
-        <v>0</v>
-      </c>
-      <c r="CL6">
-        <v>0</v>
-      </c>
-      <c r="CM6">
-        <v>0</v>
-      </c>
-      <c r="CN6">
-        <v>0</v>
-      </c>
-      <c r="CO6">
-        <v>0</v>
-      </c>
-      <c r="CP6">
-        <v>0</v>
-      </c>
-      <c r="CQ6">
-        <v>33.333333333333329</v>
-      </c>
-      <c r="CR6">
-        <v>0</v>
-      </c>
-      <c r="CS6">
-        <v>50</v>
-      </c>
       <c r="CT6">
         <v>0</v>
       </c>
       <c r="CU6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>66.666666666666657</v>
+        <v>0</v>
       </c>
       <c r="CX6">
         <v>0</v>
       </c>
       <c r="CY6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CZ6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="DA6">
         <v>0</v>
@@ -3448,19 +3324,19 @@
         <v>0</v>
       </c>
       <c r="DC6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DD6">
         <v>0</v>
       </c>
       <c r="DE6">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="DF6">
         <v>0</v>
       </c>
       <c r="DG6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DH6">
         <v>0</v>
@@ -3469,19 +3345,19 @@
         <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DK6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DL6">
         <v>100</v>
       </c>
       <c r="DM6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DN6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DO6">
         <v>100</v>
@@ -3490,16 +3366,16 @@
         <v>100</v>
       </c>
       <c r="DQ6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DU6">
         <v>100</v>
@@ -3520,16 +3396,16 @@
         <v>0</v>
       </c>
       <c r="EA6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EC6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="ED6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EE6">
         <v>0</v>
@@ -3541,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="EH6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EI6">
         <v>100</v>
@@ -3550,10 +3426,10 @@
         <v>100</v>
       </c>
       <c r="EK6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EL6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EM6">
         <v>0</v>
@@ -3562,32 +3438,10 @@
         <v>0</v>
       </c>
       <c r="EO6">
-        <v>100</v>
-      </c>
-      <c r="EP6">
-        <v>100</v>
-      </c>
-      <c r="EQ6">
-        <v>100</v>
-      </c>
-      <c r="ER6">
-        <v>100</v>
-      </c>
-      <c r="ES6">
-        <v>0</v>
-      </c>
-      <c r="ET6">
-        <v>0</v>
-      </c>
-      <c r="EU6">
-        <v>0</v>
-      </c>
-      <c r="EV6">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:152" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:145" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>30</v>
       </c>
@@ -3679,13 +3533,13 @@
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF7">
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -3700,25 +3554,25 @@
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="AN7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AO7">
-        <v>33.333333333333329</v>
+        <v>100</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AQ7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AR7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AS7">
         <v>0</v>
@@ -3736,19 +3590,19 @@
         <v>0</v>
       </c>
       <c r="AX7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AY7">
         <v>0</v>
       </c>
       <c r="AZ7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BA7">
         <v>0</v>
       </c>
       <c r="BB7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BC7">
         <v>0</v>
@@ -3769,43 +3623,43 @@
         <v>0</v>
       </c>
       <c r="BI7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BJ7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BK7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BL7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BM7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BN7">
         <v>0</v>
       </c>
       <c r="BO7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BP7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BQ7">
         <v>0</v>
       </c>
       <c r="BR7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BS7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BT7">
         <v>0</v>
       </c>
       <c r="BU7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BV7">
         <v>0</v>
@@ -3814,71 +3668,71 @@
         <v>0</v>
       </c>
       <c r="BX7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BY7">
-        <v>0</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="BZ7">
         <v>100</v>
       </c>
       <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7">
+        <v>100</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7">
+        <v>0</v>
+      </c>
+      <c r="CE7">
+        <v>100</v>
+      </c>
+      <c r="CF7">
+        <v>100</v>
+      </c>
+      <c r="CG7">
+        <v>0</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <v>0</v>
+      </c>
+      <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CL7">
+        <v>0</v>
+      </c>
+      <c r="CM7">
+        <v>0</v>
+      </c>
+      <c r="CN7">
+        <v>0</v>
+      </c>
+      <c r="CO7">
+        <v>25</v>
+      </c>
+      <c r="CP7">
+        <v>0</v>
+      </c>
+      <c r="CQ7">
+        <v>0</v>
+      </c>
+      <c r="CR7">
+        <v>0</v>
+      </c>
+      <c r="CS7">
         <v>66.666666666666657</v>
       </c>
-      <c r="CB7">
-        <v>100</v>
-      </c>
-      <c r="CC7">
-        <v>0</v>
-      </c>
-      <c r="CD7">
-        <v>100</v>
-      </c>
-      <c r="CE7">
-        <v>0</v>
-      </c>
-      <c r="CF7">
-        <v>100</v>
-      </c>
-      <c r="CG7">
-        <v>0</v>
-      </c>
-      <c r="CH7">
-        <v>100</v>
-      </c>
-      <c r="CI7">
-        <v>100</v>
-      </c>
-      <c r="CJ7">
-        <v>0</v>
-      </c>
-      <c r="CK7">
-        <v>0</v>
-      </c>
-      <c r="CL7">
-        <v>0</v>
-      </c>
-      <c r="CM7">
-        <v>0</v>
-      </c>
-      <c r="CN7">
-        <v>0</v>
-      </c>
-      <c r="CO7">
-        <v>0</v>
-      </c>
-      <c r="CP7">
-        <v>0</v>
-      </c>
-      <c r="CQ7">
-        <v>0</v>
-      </c>
-      <c r="CR7">
-        <v>0</v>
-      </c>
-      <c r="CS7">
-        <v>25</v>
-      </c>
       <c r="CT7">
         <v>0</v>
       </c>
@@ -3889,16 +3743,16 @@
         <v>0</v>
       </c>
       <c r="CW7">
-        <v>66.666666666666657</v>
+        <v>0</v>
       </c>
       <c r="CX7">
         <v>0</v>
       </c>
       <c r="CY7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="CZ7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="DA7">
         <v>0</v>
@@ -3907,31 +3761,31 @@
         <v>0</v>
       </c>
       <c r="DC7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DD7">
         <v>0</v>
       </c>
       <c r="DE7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="DF7">
         <v>0</v>
       </c>
       <c r="DG7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DH7">
         <v>0</v>
       </c>
       <c r="DI7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DJ7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DK7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DL7">
         <v>100</v>
@@ -3949,16 +3803,16 @@
         <v>100</v>
       </c>
       <c r="DQ7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DR7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DS7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DT7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DU7">
         <v>100</v>
@@ -3967,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="DW7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="DX7">
         <v>0</v>
@@ -3979,16 +3833,16 @@
         <v>0</v>
       </c>
       <c r="EA7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EB7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EC7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="ED7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EE7">
         <v>0</v>
@@ -4000,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="EH7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="EI7">
         <v>100</v>
@@ -4009,10 +3863,10 @@
         <v>100</v>
       </c>
       <c r="EK7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EL7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="EM7">
         <v>0</v>
@@ -4021,29 +3875,7 @@
         <v>0</v>
       </c>
       <c r="EO7">
-        <v>100</v>
-      </c>
-      <c r="EP7">
-        <v>100</v>
-      </c>
-      <c r="EQ7">
-        <v>100</v>
-      </c>
-      <c r="ER7">
-        <v>100</v>
-      </c>
-      <c r="ES7">
-        <v>0</v>
-      </c>
-      <c r="ET7">
-        <v>0</v>
-      </c>
-      <c r="EU7">
-        <v>0</v>
-      </c>
-      <c r="EV7">
-        <f t="shared" si="0"/>
-        <v>32.05555555555555</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
